--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -749,7 +749,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>9</t>
+    <t>8</t>
   </si>
   <si>
     <t>Entry in the bundle - will have a resource or information</t>
@@ -1431,7 +1431,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}ch-elm-practrole:Must have at least a practitioner or an organization. {practitioner.exists() or practitioner.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}ch-elm-practrole:Must have at least a practitioner or an organization. Practitioner or organization must have at least a postalCode and a city defined. {(practitioner.exists() and practitioner.resolve().address.city.exists() and practitioner.resolve().address.postalCode.exists()) or (organization.exists() and organization.resolve().address.city.exists() and organization.resolve().address.postalCode.exists())}</t>
   </si>
   <si>
     <t>Bundle.entry:PractitionerRole.search</t>
@@ -2252,7 +2252,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-material:Material declared by Observation.code or non-mandatory. {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification').not() implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.text.exists() and specimen.resolve().type.text.first()='Material declared by Observation.code or non-mandatory'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>OBX</t>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>87</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2252,7 +2252,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
   </si>
   <si>
     <t>OBX</t>
@@ -13413,7 +13413,7 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>243</v>
@@ -17037,7 +17037,7 @@
         <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L125" t="s" s="2">
         <v>243</v>
@@ -20661,7 +20661,7 @@
         <v>88</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L157" t="s" s="2">
         <v>243</v>
@@ -24285,7 +24285,7 @@
         <v>88</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L189" t="s" s="2">
         <v>243</v>
@@ -27909,7 +27909,7 @@
         <v>88</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L221" t="s" s="2">
         <v>243</v>
@@ -31533,7 +31533,7 @@
         <v>88</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L253" t="s" s="2">
         <v>243</v>
@@ -35157,7 +35157,7 @@
         <v>88</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L285" t="s" s="2">
         <v>243</v>
@@ -38781,7 +38781,7 @@
         <v>88</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L317" t="s" s="2">
         <v>243</v>
@@ -42405,7 +42405,7 @@
         <v>88</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L349" t="s" s="2">
         <v>243</v>
@@ -46031,7 +46031,7 @@
         <v>88</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L381" t="s" s="2">
         <v>243</v>
@@ -49657,7 +49657,7 @@
         <v>88</v>
       </c>
       <c r="K413" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L413" t="s" s="2">
         <v>243</v>
@@ -53281,7 +53281,7 @@
         <v>88</v>
       </c>
       <c r="K445" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L445" t="s" s="2">
         <v>243</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1431,7 +1431,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}ch-elm-practrole:Must have at least a practitioner or an organization. Practitioner or organization must have at least a postalCode and a city defined. {(practitioner.exists() and practitioner.resolve().address.city.exists() and practitioner.resolve().address.postalCode.exists()) or (organization.exists() and organization.resolve().address.city.exists() and organization.resolve().address.postalCode.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}ch-elm-practrole:Must have at least a practitioner or an organization. Practitioner or organization must have at least a postalCode and a city defined. {(practitioner.exists() and practitioner.resolve().address.city.exists() and practitioner.resolve().address.postalCode.exists()) or (organization.exists() and organization.resolve().address.city.exists() and organization.resolve().address.postalCode.exists())}ch-elm-practrole-organizaton-name-exists:Must provide an organization name in case there is no practitioner. {practitioner.exists().not() implies (organization.exists() and organization.resolve().name.exists())}</t>
   </si>
   <si>
     <t>Bundle.entry:PractitionerRole.search</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1431,7 +1431,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}ch-elm-practrole:Must have at least a practitioner or an organization. Practitioner or organization must have at least a postalCode and a city defined. {(practitioner.exists() and practitioner.resolve().address.city.exists() and practitioner.resolve().address.postalCode.exists()) or (organization.exists() and organization.resolve().address.city.exists() and organization.resolve().address.postalCode.exists())}ch-elm-practrole-organizaton-name-exists:Must provide an organization name in case there is no practitioner. {practitioner.exists().not() implies (organization.exists() and organization.resolve().name.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}</t>
   </si>
   <si>
     <t>Bundle.entry:PractitionerRole.search</t>
@@ -2252,7 +2252,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}ch-elm-expecting-specimen-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification, then Specimen.type must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-specimen-specification') implies (specimen.resolve().exists() and specimen.resolve().type.exists() and specimen.resolve().type.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-specimen-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-expecting-organism-specification:If Observation.code is a member of http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification, then Observation.valueCodeableConcept must be a member of the mapped ValueSet in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs {code.memberOf('http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-expecting-organism-specification') implies (value.exists() and (value as CodeableConcept).exists() and (value as CodeableConcept).memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-expecting-organism-specification-to-results-completion-vs'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code))}ch-elm-interpretation-code-loinc:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://loinc.org').element.where(code=%context.code.coding.where(system='http://loinc.org').first().code).target.first().code)}ch-elm-interpretation-code-snomedct:If Observation.code is a mapped in http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code', then the interpretation code must be a member of the mapped ValueSet {'http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).exists() implies interpretation.memberOf('http://fhir.ch/ig/ch-elm/ConceptMap/ch-elm-results-to-interpretation-code'.resolve().group.where(source='http://snomed.info/sct').element.where(code=%context.code.coding.where(system='http://snomed.info/sct').first().code).target.first().code)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}</t>
   </si>
   <si>
     <t>OBX</t>
@@ -2904,17 +2904,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.52734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.76171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2923,26 +2923,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}ch-lab-bdl1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Bundle-eu-lab')}ch-elm-leading-code:The ServiceRequest.code and the Observation.code are in general equal. {entry.resource.ofType(ServiceRequest).code = entry.resource.ofType(Observation).code}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}ch-lab-bdl1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Bundle-eu-lab')}ch-elm-leading-code:The ServiceRequest.code and the Observation.code are in general equal. {entry.resource.ofType(ServiceRequest).code = entry.resource.ofType(Observation).code}ber-length-in-doc:BER must start with a letter followed by 8 digits for Organization.identifier where system is urn:oid:2.16.756.5.45 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.45').all($this.value.exists() and $this.value.matches('^[A-Z][0-9]{8}$'))}ber-modulus-11-in-doc:BER must pass the modulus 11 check for Organization.identifier where system is urn:oid:2.16.756.5.45 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.45').all($this.value.exists() and 11-(($this.value.substring(1,1).toInteger()*5)+($this.value.substring(2,1).toInteger()*4)+($this.value.substring(3,1).toInteger()*3)+($this.value.substring(4,1).toInteger()*2)+($this.value.substring(5,1).toInteger()*7)+($this.value.substring(6,1).toInteger()*6)+($this.value.substring(7,1).toInteger()*5))mod(11)=$this.value.substring(8,1).toInteger())}uidb-length-in-doc:UIDB must start with 'CHE' followed by 9 digits for Organization.identifier where system is urn:oid:2.16.756.5.35 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.35').all($this.value.exists() and $this.value.matches('^CHE[0-9]{9}$'))}uidb-modulus-11-in-doc:UIDB must pass the modulus 11 check for Organization.identifier where system is urn:oid:2.16.756.5.35 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.35').all($this.value.exists() and 11-(($this.value.substring(3,1).toInteger()*5)+($this.value.substring(4,1).toInteger()*4)+($this.value.substring(5,1).toInteger()*3)+($this.value.substring(6,1).toInteger()*2)+($this.value.substring(7,1).toInteger()*7)+($this.value.substring(8,1).toInteger()*6)+($this.value.substring(9,1).toInteger()*5)+($this.value.substring(10,1).toInteger()*4))mod(11)=$this.value.substring(11,1).toInteger())}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16901" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16901" uniqueCount="824">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>bdl-1:total only when a search or history {total.empty() or (type = 'searchset') or (type = 'history')}
-bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}ch-lab-bdl1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Bundle-eu-lab')}ch-elm-leading-code:The ServiceRequest.code and the Observation.code are in general equal. {entry.resource.ofType(ServiceRequest).code = entry.resource.ofType(Observation).code}ber-length-in-doc:BER must start with a letter followed by 8 digits for Organization.identifier where system is urn:oid:2.16.756.5.45 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.45').all($this.value.exists() and $this.value.matches('^[A-Z][0-9]{8}$'))}ber-modulus-11-in-doc:BER must pass the modulus 11 check for Organization.identifier where system is urn:oid:2.16.756.5.45 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.45').all($this.value.exists() and 11-(($this.value.substring(1,1).toInteger()*5)+($this.value.substring(2,1).toInteger()*4)+($this.value.substring(3,1).toInteger()*3)+($this.value.substring(4,1).toInteger()*2)+($this.value.substring(5,1).toInteger()*7)+($this.value.substring(6,1).toInteger()*6)+($this.value.substring(7,1).toInteger()*5))mod(11)=$this.value.substring(8,1).toInteger())}uidb-length-in-doc:UIDB must start with 'CHE' followed by 9 digits for Organization.identifier where system is urn:oid:2.16.756.5.35 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.35').all($this.value.exists() and $this.value.matches('^CHE[0-9]{9}$'))}uidb-modulus-11-in-doc:UIDB must pass the modulus 11 check for Organization.identifier where system is urn:oid:2.16.756.5.35 {entry.select(resource as Organization).identifier.where(system='urn:oid:2.16.756.5.35').all($this.value.exists() and 11-(($this.value.substring(3,1).toInteger()*5)+($this.value.substring(4,1).toInteger()*4)+($this.value.substring(5,1).toInteger()*3)+($this.value.substring(6,1).toInteger()*2)+($this.value.substring(7,1).toInteger()*7)+($this.value.substring(8,1).toInteger()*6)+($this.value.substring(9,1).toInteger()*5)+($this.value.substring(10,1).toInteger()*4))mod(11)=$this.value.substring(11,1).toInteger())}</t>
+bdl-2:entry.search only when a search {entry.search.empty() or (type = 'searchset')}bdl-3:entry.request mandatory for batch/transaction/history, otherwise prohibited {entry.all(request.exists() = (%resource.type = 'batch' or %resource.type = 'transaction' or %resource.type = 'history'))}bdl-4:entry.response mandatory for batch-response/transaction-response/history, otherwise prohibited {entry.all(response.exists() = (%resource.type = 'batch-response' or %resource.type = 'transaction-response' or %resource.type = 'history'))}bdl-7:FullUrl must be unique in a bundle, or else entries with the same fullUrl must have different meta.versionId (except in history bundles) {(type = 'history') or entry.where(fullUrl.exists()).select(fullUrl&amp;resource.meta.versionId).isDistinct()}bdl-9:A document must have an identifier with a system and a value {type = 'document' implies (identifier.system.exists() and identifier.value.exists())}bdl-10:A document must have a date {type = 'document' implies (timestamp.hasValue())}bdl-11:A document must have a Composition as the first resource {type = 'document' implies entry.first().resource.is(Composition)}bdl-12:A message must have a MessageHeader as the first resource {type = 'message' implies entry.first().resource.is(MessageHeader)}ch-elm-leading-code:The ServiceRequest.code and the Observation.code are in general equal. {entry.resource.ofType(ServiceRequest).code = entry.resource.ofType(Observation).code}</t>
   </si>
   <si>
     <t>N/A</t>
@@ -1063,14 +1063,12 @@
     <t>CH ELM Composition: Laboratory Report</t>
   </si>
   <si>
-    <t>A set of healthcare-related information that is assembled together into a single logical package that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. A Composition defines the structure and narrative content necessary for a document. However, a Composition alone does not constitute a document. Rather, the Composition must be the first entry in a Bundle where Bundle.type=document, and any other resources referenced from Composition must be included as subsequent entries in the Bundle (for example Patient, Practitioner, Encounter, etc.).</t>
+    <t>Laboratory Report composition.
+A composition is a set of healthcare-related information that is assembled together into a single logical document that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. 
+While a Composition defines the structure, it does not actually contain the content: rather the full content of a document is contained in a Bundle, of which the Composition is the first resource contained.</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-comp1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Composition-eu-lab')}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
@@ -1192,10 +1190,6 @@
     <t>The CH Core Patient is based upon the core FHIR Patient Resource and designed to meet the applicable patient demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-lab-pat1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Patient-eu-lab')}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -1311,10 +1305,6 @@
     <t>The CH Core Practitioner is based upon the core FHIR Practitioner Resource and designed to meet the applicable practitioner demographic data elements in Switzerland. See also https://www.bfs.admin.ch/bfs/de/home/register/personenregister/registerharmonisierung/nomenklaturen.html for further information</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-lab-pract1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Practitioner-eu-lab')}</t>
-  </si>
-  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -1430,10 +1420,6 @@
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-pr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/PractitionerRole-eu-lab')}</t>
-  </si>
-  <si>
     <t>Bundle.entry:PractitionerRole.search</t>
   </si>
   <si>
@@ -1546,10 +1532,6 @@
     <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
-  </si>
-  <si>
     <t>(also see master files messages)</t>
   </si>
   <si>
@@ -1665,10 +1647,6 @@
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -2119,14 +2097,10 @@
     <t>CH ELM DiagnosticReport: Laboratory Report</t>
   </si>
   <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.</t>
+    <t>Laboratory Report DiagnosticReport</t>
   </si>
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-dr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/DiagnosticReport-eu-lab')}</t>
   </si>
   <si>
     <t>ORU -&gt; OBR</t>
@@ -2245,14 +2219,10 @@
     <t>CH ELM Observation Results: Laboratory</t>
   </si>
   <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}ch-lab-obs1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Observation-resultslab-eu-lab')}</t>
+    <t>This observation may represent the result of a simple laboratory test such as hematocrit or it may group the set of results produced by a multi-test study or panel such as a complete blood count, a dynamic function test, a urine specimen study. In the latter case, the observation carries the overall conclusion of the study and references the atomic results of the study as "has-member" child observations</t>
+  </si>
+  <si>
+    <t>Represents either a lab simple observation or the group of observations produced by a laboratory study.</t>
   </si>
   <si>
     <t>OBX</t>
@@ -2364,11 +2334,7 @@
     <t>CH Lab Specimen: Laboratory</t>
   </si>
   <si>
-    <t>A sample to be used for analysis.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-lab-spe1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/Specimen-eu-lab')}</t>
+    <t>Laboratory specimen</t>
   </si>
   <si>
     <t>Role[classCode=SPEC]</t>
@@ -2485,10 +2451,6 @@
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}ch-lab-sr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/ServiceRequest-eu-lab')}code-or-basedOn-required:must have a code for what is beeing requested, or a basedOn element {code.exists() or basedOn.exists()}</t>
   </si>
   <si>
     <t>ORC</t>
@@ -10084,16 +10046,16 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -10101,7 +10063,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>254</v>
@@ -10213,7 +10175,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>258</v>
@@ -10325,7 +10287,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>259</v>
@@ -10439,7 +10401,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>260</v>
@@ -10555,7 +10517,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>261</v>
@@ -10669,7 +10631,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>267</v>
@@ -10783,7 +10745,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>272</v>
@@ -10895,7 +10857,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>276</v>
@@ -11007,7 +10969,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>277</v>
@@ -11121,7 +11083,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>278</v>
@@ -11237,7 +11199,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>279</v>
@@ -11349,7 +11311,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>284</v>
@@ -11463,7 +11425,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>288</v>
@@ -11575,7 +11537,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>291</v>
@@ -11687,7 +11649,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>293</v>
@@ -11799,7 +11761,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>296</v>
@@ -11911,7 +11873,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>299</v>
@@ -12023,7 +11985,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>303</v>
@@ -12135,7 +12097,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>304</v>
@@ -12249,7 +12211,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>305</v>
@@ -12365,7 +12327,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>306</v>
@@ -12477,7 +12439,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>309</v>
@@ -12589,7 +12551,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>312</v>
@@ -12703,7 +12665,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>316</v>
@@ -12817,7 +12779,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>320</v>
@@ -12931,13 +12893,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>78</v>
@@ -13045,7 +13007,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>239</v>
@@ -13157,7 +13119,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>240</v>
@@ -13271,7 +13233,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>241</v>
@@ -13387,7 +13349,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>242</v>
@@ -13499,7 +13461,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>245</v>
@@ -13613,14 +13575,14 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13639,13 +13601,13 @@
         <v>78</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13708,16 +13670,16 @@
         <v>78</v>
       </c>
       <c r="AJ95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM95" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>78</v>
@@ -13725,7 +13687,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>254</v>
@@ -13837,7 +13799,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>258</v>
@@ -13949,7 +13911,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>259</v>
@@ -14063,7 +14025,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>260</v>
@@ -14179,7 +14141,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>261</v>
@@ -14293,7 +14255,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>267</v>
@@ -14407,7 +14369,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>272</v>
@@ -14519,7 +14481,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>276</v>
@@ -14631,7 +14593,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>277</v>
@@ -14745,7 +14707,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>278</v>
@@ -14861,7 +14823,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>279</v>
@@ -14973,7 +14935,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>284</v>
@@ -15087,7 +15049,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>288</v>
@@ -15199,7 +15161,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>291</v>
@@ -15311,7 +15273,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>293</v>
@@ -15423,7 +15385,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>296</v>
@@ -15535,7 +15497,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>299</v>
@@ -15647,7 +15609,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>303</v>
@@ -15759,7 +15721,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>304</v>
@@ -15873,7 +15835,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>305</v>
@@ -15989,7 +15951,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>306</v>
@@ -16101,7 +16063,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>309</v>
@@ -16213,7 +16175,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>312</v>
@@ -16327,7 +16289,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>316</v>
@@ -16441,7 +16403,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>320</v>
@@ -16555,13 +16517,13 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D121" t="s" s="2">
         <v>78</v>
@@ -16669,7 +16631,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>239</v>
@@ -16781,7 +16743,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>240</v>
@@ -16895,7 +16857,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>241</v>
@@ -17011,7 +16973,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>242</v>
@@ -17123,7 +17085,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>245</v>
@@ -17237,7 +17199,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>250</v>
@@ -17263,13 +17225,13 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M127" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17332,13 +17294,13 @@
         <v>78</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>415</v>
+        <v>78</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>78</v>
@@ -17349,7 +17311,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>254</v>
@@ -17461,7 +17423,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>258</v>
@@ -17573,7 +17535,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>259</v>
@@ -17687,7 +17649,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>260</v>
@@ -17803,7 +17765,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>261</v>
@@ -17917,7 +17879,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>267</v>
@@ -18031,7 +17993,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>272</v>
@@ -18143,7 +18105,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>276</v>
@@ -18255,7 +18217,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>277</v>
@@ -18369,7 +18331,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>278</v>
@@ -18485,7 +18447,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>279</v>
@@ -18597,7 +18559,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -18711,7 +18673,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>288</v>
@@ -18823,7 +18785,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -18935,7 +18897,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>293</v>
@@ -19047,7 +19009,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>296</v>
@@ -19159,7 +19121,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>299</v>
@@ -19271,7 +19233,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>303</v>
@@ -19383,7 +19345,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>304</v>
@@ -19497,7 +19459,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>305</v>
@@ -19613,7 +19575,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>306</v>
@@ -19725,7 +19687,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>309</v>
@@ -19837,7 +19799,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>312</v>
@@ -19951,7 +19913,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>316</v>
@@ -20065,7 +20027,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>320</v>
@@ -20179,13 +20141,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>78</v>
@@ -20293,7 +20255,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>239</v>
@@ -20405,7 +20367,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>240</v>
@@ -20519,7 +20481,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>241</v>
@@ -20635,7 +20597,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>242</v>
@@ -20747,7 +20709,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>245</v>
@@ -20861,7 +20823,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>250</v>
@@ -20887,13 +20849,13 @@
         <v>78</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20956,13 +20918,13 @@
         <v>78</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>78</v>
@@ -20973,7 +20935,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>254</v>
@@ -21085,7 +21047,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>258</v>
@@ -21197,7 +21159,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>259</v>
@@ -21311,7 +21273,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>260</v>
@@ -21427,7 +21389,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>261</v>
@@ -21541,7 +21503,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>267</v>
@@ -21655,7 +21617,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>272</v>
@@ -21767,7 +21729,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>276</v>
@@ -21879,7 +21841,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>277</v>
@@ -21993,7 +21955,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>278</v>
@@ -22109,7 +22071,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>279</v>
@@ -22221,7 +22183,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22335,7 +22297,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>288</v>
@@ -22447,7 +22409,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22559,7 +22521,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>293</v>
@@ -22671,7 +22633,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>296</v>
@@ -22783,7 +22745,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>299</v>
@@ -22895,7 +22857,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>303</v>
@@ -23007,7 +22969,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>304</v>
@@ -23121,7 +23083,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>305</v>
@@ -23237,7 +23199,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>306</v>
@@ -23349,7 +23311,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>309</v>
@@ -23461,7 +23423,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>312</v>
@@ -23575,7 +23537,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>316</v>
@@ -23689,7 +23651,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>320</v>
@@ -23803,13 +23765,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>78</v>
@@ -23819,7 +23781,7 @@
         <v>87</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>78</v>
@@ -23917,7 +23879,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>239</v>
@@ -24029,7 +23991,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>240</v>
@@ -24143,7 +24105,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>241</v>
@@ -24259,7 +24221,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>242</v>
@@ -24371,7 +24333,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>245</v>
@@ -24485,7 +24447,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>250</v>
@@ -24511,13 +24473,13 @@
         <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -24580,13 +24542,13 @@
         <v>78</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>78</v>
@@ -24597,7 +24559,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>254</v>
@@ -24709,7 +24671,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>258</v>
@@ -24821,7 +24783,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>259</v>
@@ -24935,7 +24897,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>260</v>
@@ -25051,7 +25013,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>261</v>
@@ -25165,7 +25127,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>267</v>
@@ -25279,7 +25241,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>272</v>
@@ -25391,7 +25353,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>276</v>
@@ -25503,7 +25465,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>277</v>
@@ -25617,7 +25579,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>278</v>
@@ -25733,7 +25695,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>279</v>
@@ -25845,7 +25807,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -25959,7 +25921,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>288</v>
@@ -26071,7 +26033,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26183,7 +26145,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>293</v>
@@ -26295,7 +26257,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>296</v>
@@ -26407,7 +26369,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>299</v>
@@ -26519,7 +26481,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>303</v>
@@ -26631,7 +26593,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>304</v>
@@ -26745,7 +26707,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>305</v>
@@ -26861,7 +26823,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>306</v>
@@ -26973,7 +26935,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>309</v>
@@ -27085,7 +27047,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>312</v>
@@ -27199,7 +27161,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>316</v>
@@ -27313,7 +27275,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>320</v>
@@ -27427,13 +27389,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>78</v>
@@ -27541,7 +27503,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>239</v>
@@ -27653,7 +27615,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>240</v>
@@ -27767,7 +27729,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>241</v>
@@ -27883,7 +27845,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>242</v>
@@ -27995,7 +27957,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>245</v>
@@ -28109,7 +28071,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>250</v>
@@ -28135,13 +28097,13 @@
         <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -28204,13 +28166,13 @@
         <v>78</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>78</v>
@@ -28221,7 +28183,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>254</v>
@@ -28333,7 +28295,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>258</v>
@@ -28445,7 +28407,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>259</v>
@@ -28559,7 +28521,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>260</v>
@@ -28675,7 +28637,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>261</v>
@@ -28789,7 +28751,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>267</v>
@@ -28903,7 +28865,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>272</v>
@@ -29015,7 +28977,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>276</v>
@@ -29127,7 +29089,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>277</v>
@@ -29241,7 +29203,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>278</v>
@@ -29357,7 +29319,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>279</v>
@@ -29469,7 +29431,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29583,7 +29545,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>288</v>
@@ -29695,7 +29657,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -29807,7 +29769,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>293</v>
@@ -29919,7 +29881,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>296</v>
@@ -30031,7 +29993,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>299</v>
@@ -30143,7 +30105,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>303</v>
@@ -30255,7 +30217,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>304</v>
@@ -30369,7 +30331,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>305</v>
@@ -30485,7 +30447,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>306</v>
@@ -30597,7 +30559,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>309</v>
@@ -30709,7 +30671,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>312</v>
@@ -30823,7 +30785,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>316</v>
@@ -30937,7 +30899,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>320</v>
@@ -31051,13 +31013,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D249" t="s" s="2">
         <v>78</v>
@@ -31165,7 +31127,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>239</v>
@@ -31277,7 +31239,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>240</v>
@@ -31391,7 +31353,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>241</v>
@@ -31507,7 +31469,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>242</v>
@@ -31619,7 +31581,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>245</v>
@@ -31733,7 +31695,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>250</v>
@@ -31759,13 +31721,13 @@
         <v>78</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -31828,13 +31790,13 @@
         <v>78</v>
       </c>
       <c r="AJ255" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AK255" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>78</v>
@@ -31845,7 +31807,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>254</v>
@@ -31957,7 +31919,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>258</v>
@@ -32069,7 +32031,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>259</v>
@@ -32183,7 +32145,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>260</v>
@@ -32299,7 +32261,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>261</v>
@@ -32413,7 +32375,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>267</v>
@@ -32527,7 +32489,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>272</v>
@@ -32639,7 +32601,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>276</v>
@@ -32751,7 +32713,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>277</v>
@@ -32865,7 +32827,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>278</v>
@@ -32981,7 +32943,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>279</v>
@@ -33093,7 +33055,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33207,7 +33169,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>288</v>
@@ -33319,7 +33281,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33431,7 +33393,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>293</v>
@@ -33543,7 +33505,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>296</v>
@@ -33655,7 +33617,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>299</v>
@@ -33767,7 +33729,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>303</v>
@@ -33879,7 +33841,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>304</v>
@@ -33993,7 +33955,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>305</v>
@@ -34109,7 +34071,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>306</v>
@@ -34221,7 +34183,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>309</v>
@@ -34333,7 +34295,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>312</v>
@@ -34447,7 +34409,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>316</v>
@@ -34561,7 +34523,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>320</v>
@@ -34675,13 +34637,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>78</v>
@@ -34789,7 +34751,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>239</v>
@@ -34901,7 +34863,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>240</v>
@@ -35015,7 +34977,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>241</v>
@@ -35131,7 +35093,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>242</v>
@@ -35243,7 +35205,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>245</v>
@@ -35357,14 +35319,14 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -35383,13 +35345,13 @@
         <v>78</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -35452,13 +35414,13 @@
         <v>78</v>
       </c>
       <c r="AJ287" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AK287" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>78</v>
@@ -35469,7 +35431,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>254</v>
@@ -35581,7 +35543,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>258</v>
@@ -35693,7 +35655,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>259</v>
@@ -35807,7 +35769,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>260</v>
@@ -35923,7 +35885,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>261</v>
@@ -36037,7 +35999,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>267</v>
@@ -36151,7 +36113,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>272</v>
@@ -36263,7 +36225,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>276</v>
@@ -36375,7 +36337,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>277</v>
@@ -36489,7 +36451,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>278</v>
@@ -36605,7 +36567,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>279</v>
@@ -36717,7 +36679,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -36831,7 +36793,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>288</v>
@@ -36943,7 +36905,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -37055,7 +37017,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>293</v>
@@ -37167,7 +37129,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>296</v>
@@ -37279,7 +37241,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>299</v>
@@ -37391,7 +37353,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>303</v>
@@ -37503,7 +37465,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>304</v>
@@ -37617,7 +37579,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>305</v>
@@ -37733,7 +37695,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>306</v>
@@ -37845,7 +37807,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>309</v>
@@ -37957,7 +37919,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>312</v>
@@ -38071,7 +38033,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>316</v>
@@ -38185,7 +38147,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>320</v>
@@ -38299,13 +38261,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>78</v>
@@ -38413,7 +38375,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>239</v>
@@ -38525,7 +38487,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>240</v>
@@ -38639,7 +38601,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>241</v>
@@ -38755,7 +38717,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>242</v>
@@ -38867,7 +38829,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>245</v>
@@ -38981,7 +38943,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>250</v>
@@ -39007,13 +38969,13 @@
         <v>78</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -39076,13 +39038,13 @@
         <v>78</v>
       </c>
       <c r="AJ319" t="s" s="2">
-        <v>531</v>
+        <v>78</v>
       </c>
       <c r="AK319" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>78</v>
@@ -39093,7 +39055,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>254</v>
@@ -39205,7 +39167,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>258</v>
@@ -39317,7 +39279,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>259</v>
@@ -39431,7 +39393,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>260</v>
@@ -39547,7 +39509,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>261</v>
@@ -39661,7 +39623,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>267</v>
@@ -39775,7 +39737,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>272</v>
@@ -39887,7 +39849,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>276</v>
@@ -39999,7 +39961,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>277</v>
@@ -40113,7 +40075,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>278</v>
@@ -40229,7 +40191,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>279</v>
@@ -40341,7 +40303,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40455,7 +40417,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>288</v>
@@ -40567,7 +40529,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -40679,7 +40641,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>293</v>
@@ -40791,7 +40753,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>296</v>
@@ -40903,7 +40865,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>299</v>
@@ -41015,7 +40977,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>303</v>
@@ -41127,7 +41089,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>304</v>
@@ -41241,7 +41203,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>305</v>
@@ -41357,7 +41319,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>306</v>
@@ -41469,7 +41431,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>309</v>
@@ -41581,7 +41543,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>312</v>
@@ -41695,7 +41657,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>316</v>
@@ -41809,7 +41771,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>320</v>
@@ -41923,13 +41885,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>78</v>
@@ -42037,7 +41999,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>239</v>
@@ -42149,7 +42111,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>240</v>
@@ -42263,7 +42225,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>241</v>
@@ -42379,7 +42341,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>242</v>
@@ -42491,7 +42453,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>245</v>
@@ -42605,14 +42567,14 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" t="s" s="2">
@@ -42631,16 +42593,16 @@
         <v>78</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" t="s" s="2">
@@ -42702,13 +42664,13 @@
         <v>78</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>682</v>
+        <v>78</v>
       </c>
       <c r="AK351" t="s" s="2">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AL351" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AM351" t="s" s="2">
         <v>78</v>
@@ -42719,7 +42681,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>254</v>
@@ -42831,7 +42793,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>258</v>
@@ -42943,7 +42905,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>259</v>
@@ -43057,7 +43019,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>260</v>
@@ -43173,7 +43135,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>261</v>
@@ -43287,7 +43249,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>267</v>
@@ -43401,7 +43363,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>272</v>
@@ -43513,7 +43475,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>276</v>
@@ -43625,7 +43587,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>277</v>
@@ -43739,7 +43701,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>278</v>
@@ -43855,7 +43817,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>279</v>
@@ -43967,7 +43929,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>284</v>
@@ -44081,7 +44043,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>288</v>
@@ -44193,7 +44155,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>291</v>
@@ -44305,7 +44267,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>293</v>
@@ -44417,7 +44379,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>296</v>
@@ -44529,7 +44491,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>299</v>
@@ -44641,7 +44603,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>303</v>
@@ -44753,7 +44715,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>304</v>
@@ -44867,7 +44829,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>305</v>
@@ -44983,7 +44945,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>306</v>
@@ -45095,7 +45057,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>309</v>
@@ -45207,7 +45169,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>312</v>
@@ -45321,7 +45283,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>316</v>
@@ -45435,7 +45397,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>320</v>
@@ -45549,13 +45511,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D377" t="s" s="2">
         <v>78</v>
@@ -45663,7 +45625,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>239</v>
@@ -45775,7 +45737,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>240</v>
@@ -45889,7 +45851,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>241</v>
@@ -46005,7 +45967,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>242</v>
@@ -46117,7 +46079,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>245</v>
@@ -46231,14 +46193,14 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" t="s" s="2">
@@ -46257,16 +46219,16 @@
         <v>78</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" t="s" s="2">
@@ -46328,13 +46290,13 @@
         <v>78</v>
       </c>
       <c r="AJ383" t="s" s="2">
-        <v>723</v>
+        <v>78</v>
       </c>
       <c r="AK383" t="s" s="2">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="AL383" t="s" s="2">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AM383" t="s" s="2">
         <v>78</v>
@@ -46345,7 +46307,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>254</v>
@@ -46457,7 +46419,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>258</v>
@@ -46569,7 +46531,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>259</v>
@@ -46683,7 +46645,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>260</v>
@@ -46799,7 +46761,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>261</v>
@@ -46913,7 +46875,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>267</v>
@@ -47027,7 +46989,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>272</v>
@@ -47139,7 +47101,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>276</v>
@@ -47251,7 +47213,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>277</v>
@@ -47365,7 +47327,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>278</v>
@@ -47481,7 +47443,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>279</v>
@@ -47593,7 +47555,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>284</v>
@@ -47707,7 +47669,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>288</v>
@@ -47819,7 +47781,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>291</v>
@@ -47931,7 +47893,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>293</v>
@@ -48043,7 +48005,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>296</v>
@@ -48155,7 +48117,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>299</v>
@@ -48267,7 +48229,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>303</v>
@@ -48379,7 +48341,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>304</v>
@@ -48493,7 +48455,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>305</v>
@@ -48609,7 +48571,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>306</v>
@@ -48721,7 +48683,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>309</v>
@@ -48833,7 +48795,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>312</v>
@@ -48947,7 +48909,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>316</v>
@@ -49061,7 +49023,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>320</v>
@@ -49175,13 +49137,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D409" t="s" s="2">
         <v>78</v>
@@ -49289,7 +49251,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>239</v>
@@ -49401,7 +49363,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>240</v>
@@ -49515,7 +49477,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>241</v>
@@ -49631,7 +49593,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>242</v>
@@ -49743,7 +49705,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>245</v>
@@ -49857,7 +49819,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>250</v>
@@ -49883,13 +49845,13 @@
         <v>78</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
@@ -49952,13 +49914,13 @@
         <v>78</v>
       </c>
       <c r="AJ415" t="s" s="2">
-        <v>761</v>
+        <v>78</v>
       </c>
       <c r="AK415" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL415" t="s" s="2">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="AM415" t="s" s="2">
         <v>78</v>
@@ -49969,7 +49931,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>254</v>
@@ -50081,7 +50043,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>258</v>
@@ -50193,7 +50155,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>259</v>
@@ -50307,7 +50269,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>260</v>
@@ -50423,7 +50385,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>261</v>
@@ -50537,7 +50499,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>267</v>
@@ -50651,7 +50613,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>272</v>
@@ -50763,7 +50725,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>276</v>
@@ -50875,7 +50837,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>277</v>
@@ -50989,7 +50951,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>278</v>
@@ -51105,7 +51067,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>279</v>
@@ -51217,7 +51179,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>284</v>
@@ -51331,7 +51293,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>288</v>
@@ -51443,7 +51405,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>291</v>
@@ -51555,7 +51517,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>293</v>
@@ -51667,7 +51629,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>296</v>
@@ -51779,7 +51741,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>299</v>
@@ -51891,7 +51853,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>303</v>
@@ -52003,7 +51965,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>304</v>
@@ -52117,7 +52079,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>305</v>
@@ -52233,7 +52195,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>306</v>
@@ -52345,7 +52307,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>309</v>
@@ -52457,7 +52419,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>312</v>
@@ -52571,7 +52533,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>316</v>
@@ -52685,7 +52647,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>320</v>
@@ -52799,13 +52761,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D441" t="s" s="2">
         <v>78</v>
@@ -52913,7 +52875,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>239</v>
@@ -53025,7 +52987,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>240</v>
@@ -53139,7 +53101,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>241</v>
@@ -53255,7 +53217,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>242</v>
@@ -53367,7 +53329,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>245</v>
@@ -53481,14 +53443,14 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" t="s" s="2">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="E447" s="2"/>
       <c r="F447" t="s" s="2">
@@ -53507,13 +53469,13 @@
         <v>78</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
@@ -53576,13 +53538,13 @@
         <v>78</v>
       </c>
       <c r="AJ447" t="s" s="2">
-        <v>800</v>
+        <v>78</v>
       </c>
       <c r="AK447" t="s" s="2">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="AL447" t="s" s="2">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="AM447" t="s" s="2">
         <v>78</v>
@@ -53593,7 +53555,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>254</v>
@@ -53705,7 +53667,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>258</v>
@@ -53817,7 +53779,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>259</v>
@@ -53931,7 +53893,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>260</v>
@@ -54047,7 +54009,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>261</v>
@@ -54161,7 +54123,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>267</v>
@@ -54275,7 +54237,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>272</v>
@@ -54387,7 +54349,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>276</v>
@@ -54499,7 +54461,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>277</v>
@@ -54613,7 +54575,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>278</v>
@@ -54729,7 +54691,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>279</v>
@@ -54841,7 +54803,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>284</v>
@@ -54955,7 +54917,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>288</v>
@@ -55067,7 +55029,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>291</v>
@@ -55179,7 +55141,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>293</v>
@@ -55291,7 +55253,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>296</v>
@@ -55403,7 +55365,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>299</v>
@@ -55515,7 +55477,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>303</v>
@@ -55627,7 +55589,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>304</v>
@@ -55741,7 +55703,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>305</v>
@@ -55857,7 +55819,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>306</v>
@@ -55969,7 +55931,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>309</v>
@@ -56081,7 +56043,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>312</v>
@@ -56195,7 +56157,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>316</v>
@@ -56309,7 +56271,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>320</v>
@@ -56423,10 +56385,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" t="s" s="2">
@@ -56449,19 +56411,19 @@
         <v>88</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="O473" t="s" s="2">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="P473" t="s" s="2">
         <v>78</v>
@@ -56510,7 +56472,7 @@
         <v>78</v>
       </c>
       <c r="AF473" t="s" s="2">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="AG473" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1637,11 +1637,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2866,17 +2866,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.4765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.76171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="80.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2885,26 +2885,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
@@ -9932,7 +9932,7 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
@@ -13472,7 +13472,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
@@ -13558,7 +13558,7 @@
         <v>78</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>78</v>
@@ -17096,7 +17096,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>87</v>
@@ -17182,7 +17182,7 @@
         <v>78</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>78</v>
@@ -20720,7 +20720,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>87</v>
@@ -20806,7 +20806,7 @@
         <v>78</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>78</v>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>87</v>
@@ -24430,7 +24430,7 @@
         <v>78</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>78</v>
@@ -27968,7 +27968,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>87</v>
@@ -28054,7 +28054,7 @@
         <v>78</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>78</v>
@@ -31592,7 +31592,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>87</v>
@@ -31678,7 +31678,7 @@
         <v>78</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>78</v>
@@ -35216,7 +35216,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>87</v>
@@ -35302,7 +35302,7 @@
         <v>78</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>78</v>
@@ -38840,7 +38840,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>87</v>
@@ -38926,7 +38926,7 @@
         <v>78</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>78</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16901" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16901" uniqueCount="825">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1277,6 +1277,9 @@
     <t>Practitioner</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Bundle.entry:Practitioner.id</t>
   </si>
   <si>
@@ -1501,7 +1504,7 @@
     <t>Organization</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Bundle.entry:Organization.id</t>
@@ -2443,11 +2446,11 @@
 referralreferral requesttransfer of care request</t>
   </si>
   <si>
-    <t xml:space="preserve">ServiceRequest {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-servicerequest-laboratory-order}
+    <t xml:space="preserve">ServiceRequest {http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-report-servicerequest}
 </t>
   </si>
   <si>
-    <t>CH ELM ServiceRequest: Laboratory Order</t>
+    <t>CH LAB Service Request: Laboratory</t>
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
@@ -2876,7 +2879,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="80.3828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -16533,7 +16536,7 @@
         <v>79</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>78</v>
@@ -16631,7 +16634,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>239</v>
@@ -16743,7 +16746,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>240</v>
@@ -16857,7 +16860,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>241</v>
@@ -16973,7 +16976,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>242</v>
@@ -17085,7 +17088,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>245</v>
@@ -17199,7 +17202,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>250</v>
@@ -17225,13 +17228,13 @@
         <v>78</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17297,10 +17300,10 @@
         <v>78</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>78</v>
@@ -17311,7 +17314,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>254</v>
@@ -17423,7 +17426,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>258</v>
@@ -17535,7 +17538,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>259</v>
@@ -17649,7 +17652,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>260</v>
@@ -17765,7 +17768,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>261</v>
@@ -17879,7 +17882,7 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>267</v>
@@ -17993,7 +17996,7 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>272</v>
@@ -18105,7 +18108,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>276</v>
@@ -18217,7 +18220,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>277</v>
@@ -18331,7 +18334,7 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>278</v>
@@ -18447,7 +18450,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>279</v>
@@ -18559,7 +18562,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>284</v>
@@ -18673,7 +18676,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>288</v>
@@ -18785,7 +18788,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>291</v>
@@ -18897,7 +18900,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>293</v>
@@ -19009,7 +19012,7 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>296</v>
@@ -19121,7 +19124,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>299</v>
@@ -19233,7 +19236,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>303</v>
@@ -19345,7 +19348,7 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>304</v>
@@ -19459,7 +19462,7 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>305</v>
@@ -19575,7 +19578,7 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>306</v>
@@ -19687,7 +19690,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>309</v>
@@ -19799,7 +19802,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>312</v>
@@ -19913,7 +19916,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>316</v>
@@ -20027,7 +20030,7 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>320</v>
@@ -20141,13 +20144,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>78</v>
@@ -20157,7 +20160,7 @@
         <v>87</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>78</v>
@@ -20255,7 +20258,7 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>239</v>
@@ -20367,7 +20370,7 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>240</v>
@@ -20481,7 +20484,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>241</v>
@@ -20597,7 +20600,7 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>242</v>
@@ -20709,7 +20712,7 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>245</v>
@@ -20823,7 +20826,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>250</v>
@@ -20849,13 +20852,13 @@
         <v>78</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
@@ -20921,10 +20924,10 @@
         <v>78</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>78</v>
@@ -20935,7 +20938,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>254</v>
@@ -21047,7 +21050,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>258</v>
@@ -21159,7 +21162,7 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>259</v>
@@ -21273,7 +21276,7 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>260</v>
@@ -21389,7 +21392,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>261</v>
@@ -21503,7 +21506,7 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>267</v>
@@ -21617,7 +21620,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>272</v>
@@ -21729,7 +21732,7 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>276</v>
@@ -21841,7 +21844,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>277</v>
@@ -21955,7 +21958,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>278</v>
@@ -22071,7 +22074,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>279</v>
@@ -22183,7 +22186,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>284</v>
@@ -22297,7 +22300,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>288</v>
@@ -22409,7 +22412,7 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>291</v>
@@ -22521,7 +22524,7 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>293</v>
@@ -22633,7 +22636,7 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>296</v>
@@ -22745,7 +22748,7 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>299</v>
@@ -22857,7 +22860,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>303</v>
@@ -22969,7 +22972,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>304</v>
@@ -23083,7 +23086,7 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>305</v>
@@ -23199,7 +23202,7 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>306</v>
@@ -23311,7 +23314,7 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>309</v>
@@ -23423,7 +23426,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>312</v>
@@ -23537,7 +23540,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>316</v>
@@ -23651,7 +23654,7 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>320</v>
@@ -23765,13 +23768,13 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D185" t="s" s="2">
         <v>78</v>
@@ -23781,7 +23784,7 @@
         <v>87</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>78</v>
@@ -23879,7 +23882,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>239</v>
@@ -23991,7 +23994,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>240</v>
@@ -24105,7 +24108,7 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>241</v>
@@ -24221,7 +24224,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>242</v>
@@ -24333,7 +24336,7 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>245</v>
@@ -24447,7 +24450,7 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>250</v>
@@ -24473,13 +24476,13 @@
         <v>78</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -24545,10 +24548,10 @@
         <v>78</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM191" t="s" s="2">
         <v>78</v>
@@ -24559,7 +24562,7 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>254</v>
@@ -24671,7 +24674,7 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>258</v>
@@ -24783,7 +24786,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>259</v>
@@ -24897,7 +24900,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>260</v>
@@ -25013,7 +25016,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>261</v>
@@ -25127,7 +25130,7 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>267</v>
@@ -25241,7 +25244,7 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>272</v>
@@ -25353,7 +25356,7 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>276</v>
@@ -25465,7 +25468,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>277</v>
@@ -25579,7 +25582,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>278</v>
@@ -25695,7 +25698,7 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>279</v>
@@ -25807,7 +25810,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>284</v>
@@ -25921,7 +25924,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>288</v>
@@ -26033,7 +26036,7 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>291</v>
@@ -26145,7 +26148,7 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>293</v>
@@ -26257,7 +26260,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>296</v>
@@ -26369,7 +26372,7 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>299</v>
@@ -26481,7 +26484,7 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>303</v>
@@ -26593,7 +26596,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>304</v>
@@ -26707,7 +26710,7 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>305</v>
@@ -26823,7 +26826,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>306</v>
@@ -26935,7 +26938,7 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>309</v>
@@ -27047,7 +27050,7 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>312</v>
@@ -27161,7 +27164,7 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>316</v>
@@ -27275,7 +27278,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>320</v>
@@ -27389,13 +27392,13 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D217" t="s" s="2">
         <v>78</v>
@@ -27503,7 +27506,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>239</v>
@@ -27615,7 +27618,7 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>240</v>
@@ -27729,7 +27732,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>241</v>
@@ -27845,7 +27848,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>242</v>
@@ -27957,7 +27960,7 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>245</v>
@@ -28071,7 +28074,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>250</v>
@@ -28097,13 +28100,13 @@
         <v>78</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
@@ -28172,7 +28175,7 @@
         <v>78</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>78</v>
@@ -28183,7 +28186,7 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>254</v>
@@ -28295,7 +28298,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>258</v>
@@ -28407,7 +28410,7 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>259</v>
@@ -28521,7 +28524,7 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>260</v>
@@ -28637,7 +28640,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>261</v>
@@ -28751,7 +28754,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>267</v>
@@ -28865,7 +28868,7 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>272</v>
@@ -28977,7 +28980,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>276</v>
@@ -29089,7 +29092,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>277</v>
@@ -29203,7 +29206,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>278</v>
@@ -29319,7 +29322,7 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>279</v>
@@ -29431,7 +29434,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>284</v>
@@ -29545,7 +29548,7 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>288</v>
@@ -29657,7 +29660,7 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>291</v>
@@ -29769,7 +29772,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>293</v>
@@ -29881,7 +29884,7 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>296</v>
@@ -29993,7 +29996,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>299</v>
@@ -30105,7 +30108,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>303</v>
@@ -30217,7 +30220,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>304</v>
@@ -30331,7 +30334,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>305</v>
@@ -30447,7 +30450,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>306</v>
@@ -30559,7 +30562,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>309</v>
@@ -30671,7 +30674,7 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>312</v>
@@ -30785,7 +30788,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>316</v>
@@ -30899,7 +30902,7 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>320</v>
@@ -31013,13 +31016,13 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D249" t="s" s="2">
         <v>78</v>
@@ -31127,7 +31130,7 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>239</v>
@@ -31239,7 +31242,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>240</v>
@@ -31353,7 +31356,7 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>241</v>
@@ -31469,7 +31472,7 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>242</v>
@@ -31581,7 +31584,7 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>245</v>
@@ -31695,7 +31698,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>250</v>
@@ -31721,13 +31724,13 @@
         <v>78</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
@@ -31796,7 +31799,7 @@
         <v>78</v>
       </c>
       <c r="AL255" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AM255" t="s" s="2">
         <v>78</v>
@@ -31807,7 +31810,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>254</v>
@@ -31919,7 +31922,7 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>258</v>
@@ -32031,7 +32034,7 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>259</v>
@@ -32145,7 +32148,7 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>260</v>
@@ -32261,7 +32264,7 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>261</v>
@@ -32375,7 +32378,7 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>267</v>
@@ -32489,7 +32492,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>272</v>
@@ -32601,7 +32604,7 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>276</v>
@@ -32713,7 +32716,7 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>277</v>
@@ -32827,7 +32830,7 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>278</v>
@@ -32943,7 +32946,7 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>279</v>
@@ -33055,7 +33058,7 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>284</v>
@@ -33169,7 +33172,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>288</v>
@@ -33281,7 +33284,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>291</v>
@@ -33393,7 +33396,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>293</v>
@@ -33505,7 +33508,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>296</v>
@@ -33617,7 +33620,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>299</v>
@@ -33729,7 +33732,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>303</v>
@@ -33841,7 +33844,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>304</v>
@@ -33955,7 +33958,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>305</v>
@@ -34071,7 +34074,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>306</v>
@@ -34183,7 +34186,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>309</v>
@@ -34295,7 +34298,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>312</v>
@@ -34409,7 +34412,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>316</v>
@@ -34523,7 +34526,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>320</v>
@@ -34637,13 +34640,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D281" t="s" s="2">
         <v>78</v>
@@ -34751,7 +34754,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>239</v>
@@ -34863,7 +34866,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>240</v>
@@ -34977,7 +34980,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>241</v>
@@ -35093,7 +35096,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>242</v>
@@ -35205,7 +35208,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>245</v>
@@ -35319,14 +35322,14 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" t="s" s="2">
@@ -35345,13 +35348,13 @@
         <v>78</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
@@ -35420,7 +35423,7 @@
         <v>78</v>
       </c>
       <c r="AL287" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AM287" t="s" s="2">
         <v>78</v>
@@ -35431,7 +35434,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>254</v>
@@ -35543,7 +35546,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>258</v>
@@ -35655,7 +35658,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>259</v>
@@ -35769,7 +35772,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>260</v>
@@ -35885,7 +35888,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>261</v>
@@ -35999,7 +36002,7 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>267</v>
@@ -36113,7 +36116,7 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>272</v>
@@ -36225,7 +36228,7 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>276</v>
@@ -36337,7 +36340,7 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>277</v>
@@ -36451,7 +36454,7 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>278</v>
@@ -36567,7 +36570,7 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>279</v>
@@ -36679,7 +36682,7 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>284</v>
@@ -36793,7 +36796,7 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>288</v>
@@ -36905,7 +36908,7 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>291</v>
@@ -37017,7 +37020,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>293</v>
@@ -37129,7 +37132,7 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>296</v>
@@ -37241,7 +37244,7 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>299</v>
@@ -37353,7 +37356,7 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>303</v>
@@ -37465,7 +37468,7 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>304</v>
@@ -37579,7 +37582,7 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>305</v>
@@ -37695,7 +37698,7 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>306</v>
@@ -37807,7 +37810,7 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>309</v>
@@ -37919,7 +37922,7 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>312</v>
@@ -38033,7 +38036,7 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>316</v>
@@ -38147,7 +38150,7 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>320</v>
@@ -38261,13 +38264,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>78</v>
@@ -38375,7 +38378,7 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>239</v>
@@ -38487,7 +38490,7 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>240</v>
@@ -38601,7 +38604,7 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>241</v>
@@ -38717,7 +38720,7 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>242</v>
@@ -38829,7 +38832,7 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>245</v>
@@ -38943,7 +38946,7 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>250</v>
@@ -38969,13 +38972,13 @@
         <v>78</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
@@ -39044,7 +39047,7 @@
         <v>78</v>
       </c>
       <c r="AL319" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AM319" t="s" s="2">
         <v>78</v>
@@ -39055,7 +39058,7 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>254</v>
@@ -39167,7 +39170,7 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>258</v>
@@ -39279,7 +39282,7 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>259</v>
@@ -39393,7 +39396,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>260</v>
@@ -39509,7 +39512,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>261</v>
@@ -39623,7 +39626,7 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>267</v>
@@ -39737,7 +39740,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>272</v>
@@ -39849,7 +39852,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>276</v>
@@ -39961,7 +39964,7 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>277</v>
@@ -40075,7 +40078,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>278</v>
@@ -40191,7 +40194,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>279</v>
@@ -40303,7 +40306,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>284</v>
@@ -40417,7 +40420,7 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>288</v>
@@ -40529,7 +40532,7 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>291</v>
@@ -40641,7 +40644,7 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>293</v>
@@ -40753,7 +40756,7 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>296</v>
@@ -40865,7 +40868,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>299</v>
@@ -40977,7 +40980,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>303</v>
@@ -41089,7 +41092,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>304</v>
@@ -41203,7 +41206,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>305</v>
@@ -41319,7 +41322,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>306</v>
@@ -41431,7 +41434,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>309</v>
@@ -41543,7 +41546,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>312</v>
@@ -41657,7 +41660,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>316</v>
@@ -41771,7 +41774,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>320</v>
@@ -41885,13 +41888,13 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D345" t="s" s="2">
         <v>78</v>
@@ -41999,7 +42002,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>239</v>
@@ -42111,7 +42114,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>240</v>
@@ -42225,7 +42228,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>241</v>
@@ -42341,7 +42344,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>242</v>
@@ -42453,7 +42456,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>245</v>
@@ -42567,14 +42570,14 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E351" s="2"/>
       <c r="F351" t="s" s="2">
@@ -42593,16 +42596,16 @@
         <v>78</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O351" s="2"/>
       <c r="P351" t="s" s="2">
@@ -42667,10 +42670,10 @@
         <v>78</v>
       </c>
       <c r="AK351" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AL351" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM351" t="s" s="2">
         <v>78</v>
@@ -42681,7 +42684,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>254</v>
@@ -42793,7 +42796,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>258</v>
@@ -42905,7 +42908,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>259</v>
@@ -43019,7 +43022,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>260</v>
@@ -43135,7 +43138,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>261</v>
@@ -43249,7 +43252,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>267</v>
@@ -43363,7 +43366,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>272</v>
@@ -43475,7 +43478,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>276</v>
@@ -43587,7 +43590,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>277</v>
@@ -43701,7 +43704,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>278</v>
@@ -43817,7 +43820,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>279</v>
@@ -43929,7 +43932,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>284</v>
@@ -44043,7 +44046,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>288</v>
@@ -44155,7 +44158,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>291</v>
@@ -44267,7 +44270,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>293</v>
@@ -44379,7 +44382,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>296</v>
@@ -44491,7 +44494,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>299</v>
@@ -44603,7 +44606,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>303</v>
@@ -44715,7 +44718,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>304</v>
@@ -44829,7 +44832,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>305</v>
@@ -44945,7 +44948,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>306</v>
@@ -45057,7 +45060,7 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>309</v>
@@ -45169,7 +45172,7 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>312</v>
@@ -45283,7 +45286,7 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>316</v>
@@ -45397,7 +45400,7 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>320</v>
@@ -45511,13 +45514,13 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D377" t="s" s="2">
         <v>78</v>
@@ -45625,7 +45628,7 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>239</v>
@@ -45737,7 +45740,7 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>240</v>
@@ -45851,7 +45854,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>241</v>
@@ -45967,7 +45970,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>242</v>
@@ -46079,7 +46082,7 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>245</v>
@@ -46193,14 +46196,14 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" t="s" s="2">
@@ -46219,16 +46222,16 @@
         <v>78</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L383" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O383" s="2"/>
       <c r="P383" t="s" s="2">
@@ -46293,10 +46296,10 @@
         <v>78</v>
       </c>
       <c r="AK383" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AL383" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AM383" t="s" s="2">
         <v>78</v>
@@ -46307,7 +46310,7 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>254</v>
@@ -46419,7 +46422,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>258</v>
@@ -46531,7 +46534,7 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>259</v>
@@ -46645,7 +46648,7 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>260</v>
@@ -46761,7 +46764,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>261</v>
@@ -46875,7 +46878,7 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>267</v>
@@ -46989,7 +46992,7 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>272</v>
@@ -47101,7 +47104,7 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>276</v>
@@ -47213,7 +47216,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>277</v>
@@ -47327,7 +47330,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>278</v>
@@ -47443,7 +47446,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>279</v>
@@ -47555,7 +47558,7 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>284</v>
@@ -47669,7 +47672,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>288</v>
@@ -47781,7 +47784,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>291</v>
@@ -47893,7 +47896,7 @@
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>293</v>
@@ -48005,7 +48008,7 @@
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>296</v>
@@ -48117,7 +48120,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>299</v>
@@ -48229,7 +48232,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>303</v>
@@ -48341,7 +48344,7 @@
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>304</v>
@@ -48455,7 +48458,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>305</v>
@@ -48571,7 +48574,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>306</v>
@@ -48683,7 +48686,7 @@
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>309</v>
@@ -48795,7 +48798,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>312</v>
@@ -48909,7 +48912,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>316</v>
@@ -49023,7 +49026,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>320</v>
@@ -49137,13 +49140,13 @@
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D409" t="s" s="2">
         <v>78</v>
@@ -49251,7 +49254,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>239</v>
@@ -49363,7 +49366,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>240</v>
@@ -49477,7 +49480,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>241</v>
@@ -49593,7 +49596,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>242</v>
@@ -49705,7 +49708,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>245</v>
@@ -49819,7 +49822,7 @@
     </row>
     <row r="415">
       <c r="A415" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>250</v>
@@ -49845,13 +49848,13 @@
         <v>78</v>
       </c>
       <c r="K415" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="L415" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="M415" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N415" s="2"/>
       <c r="O415" s="2"/>
@@ -49920,7 +49923,7 @@
         <v>78</v>
       </c>
       <c r="AL415" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AM415" t="s" s="2">
         <v>78</v>
@@ -49931,7 +49934,7 @@
     </row>
     <row r="416">
       <c r="A416" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>254</v>
@@ -50043,7 +50046,7 @@
     </row>
     <row r="417">
       <c r="A417" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>258</v>
@@ -50155,7 +50158,7 @@
     </row>
     <row r="418">
       <c r="A418" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>259</v>
@@ -50269,7 +50272,7 @@
     </row>
     <row r="419">
       <c r="A419" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>260</v>
@@ -50385,7 +50388,7 @@
     </row>
     <row r="420">
       <c r="A420" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>261</v>
@@ -50499,7 +50502,7 @@
     </row>
     <row r="421">
       <c r="A421" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>267</v>
@@ -50613,7 +50616,7 @@
     </row>
     <row r="422">
       <c r="A422" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>272</v>
@@ -50725,7 +50728,7 @@
     </row>
     <row r="423">
       <c r="A423" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>276</v>
@@ -50837,7 +50840,7 @@
     </row>
     <row r="424">
       <c r="A424" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>277</v>
@@ -50951,7 +50954,7 @@
     </row>
     <row r="425">
       <c r="A425" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>278</v>
@@ -51067,7 +51070,7 @@
     </row>
     <row r="426">
       <c r="A426" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>279</v>
@@ -51179,7 +51182,7 @@
     </row>
     <row r="427">
       <c r="A427" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>284</v>
@@ -51293,7 +51296,7 @@
     </row>
     <row r="428">
       <c r="A428" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>288</v>
@@ -51405,7 +51408,7 @@
     </row>
     <row r="429">
       <c r="A429" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>291</v>
@@ -51517,7 +51520,7 @@
     </row>
     <row r="430">
       <c r="A430" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>293</v>
@@ -51629,7 +51632,7 @@
     </row>
     <row r="431">
       <c r="A431" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>296</v>
@@ -51741,7 +51744,7 @@
     </row>
     <row r="432">
       <c r="A432" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>299</v>
@@ -51853,7 +51856,7 @@
     </row>
     <row r="433">
       <c r="A433" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>303</v>
@@ -51965,7 +51968,7 @@
     </row>
     <row r="434">
       <c r="A434" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>304</v>
@@ -52079,7 +52082,7 @@
     </row>
     <row r="435">
       <c r="A435" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>305</v>
@@ -52195,7 +52198,7 @@
     </row>
     <row r="436">
       <c r="A436" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>306</v>
@@ -52307,7 +52310,7 @@
     </row>
     <row r="437">
       <c r="A437" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>309</v>
@@ -52419,7 +52422,7 @@
     </row>
     <row r="438">
       <c r="A438" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>312</v>
@@ -52533,7 +52536,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>316</v>
@@ -52647,7 +52650,7 @@
     </row>
     <row r="440">
       <c r="A440" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>320</v>
@@ -52761,13 +52764,13 @@
     </row>
     <row r="441">
       <c r="A441" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>233</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D441" t="s" s="2">
         <v>78</v>
@@ -52777,7 +52780,7 @@
         <v>87</v>
       </c>
       <c r="G441" t="s" s="2">
-        <v>87</v>
+        <v>404</v>
       </c>
       <c r="H441" t="s" s="2">
         <v>78</v>
@@ -52875,7 +52878,7 @@
     </row>
     <row r="442">
       <c r="A442" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>239</v>
@@ -52987,7 +52990,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>240</v>
@@ -53101,7 +53104,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>241</v>
@@ -53217,7 +53220,7 @@
     </row>
     <row r="445">
       <c r="A445" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>242</v>
@@ -53329,7 +53332,7 @@
     </row>
     <row r="446">
       <c r="A446" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>245</v>
@@ -53443,14 +53446,14 @@
     </row>
     <row r="447">
       <c r="A447" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>250</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="E447" s="2"/>
       <c r="F447" t="s" s="2">
@@ -53469,13 +53472,13 @@
         <v>78</v>
       </c>
       <c r="K447" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L447" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="M447" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="N447" s="2"/>
       <c r="O447" s="2"/>
@@ -53541,10 +53544,10 @@
         <v>78</v>
       </c>
       <c r="AK447" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="AL447" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="AM447" t="s" s="2">
         <v>78</v>
@@ -53555,7 +53558,7 @@
     </row>
     <row r="448">
       <c r="A448" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>254</v>
@@ -53667,7 +53670,7 @@
     </row>
     <row r="449">
       <c r="A449" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>258</v>
@@ -53779,7 +53782,7 @@
     </row>
     <row r="450">
       <c r="A450" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>259</v>
@@ -53893,7 +53896,7 @@
     </row>
     <row r="451">
       <c r="A451" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>260</v>
@@ -54009,7 +54012,7 @@
     </row>
     <row r="452">
       <c r="A452" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>261</v>
@@ -54123,7 +54126,7 @@
     </row>
     <row r="453">
       <c r="A453" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>267</v>
@@ -54237,7 +54240,7 @@
     </row>
     <row r="454">
       <c r="A454" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>272</v>
@@ -54349,7 +54352,7 @@
     </row>
     <row r="455">
       <c r="A455" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>276</v>
@@ -54461,7 +54464,7 @@
     </row>
     <row r="456">
       <c r="A456" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>277</v>
@@ -54575,7 +54578,7 @@
     </row>
     <row r="457">
       <c r="A457" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>278</v>
@@ -54691,7 +54694,7 @@
     </row>
     <row r="458">
       <c r="A458" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>279</v>
@@ -54803,7 +54806,7 @@
     </row>
     <row r="459">
       <c r="A459" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>284</v>
@@ -54917,7 +54920,7 @@
     </row>
     <row r="460">
       <c r="A460" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>288</v>
@@ -55029,7 +55032,7 @@
     </row>
     <row r="461">
       <c r="A461" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>291</v>
@@ -55141,7 +55144,7 @@
     </row>
     <row r="462">
       <c r="A462" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>293</v>
@@ -55253,7 +55256,7 @@
     </row>
     <row r="463">
       <c r="A463" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>296</v>
@@ -55365,7 +55368,7 @@
     </row>
     <row r="464">
       <c r="A464" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>299</v>
@@ -55477,7 +55480,7 @@
     </row>
     <row r="465">
       <c r="A465" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B465" t="s" s="2">
         <v>303</v>
@@ -55589,7 +55592,7 @@
     </row>
     <row r="466">
       <c r="A466" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B466" t="s" s="2">
         <v>304</v>
@@ -55703,7 +55706,7 @@
     </row>
     <row r="467">
       <c r="A467" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B467" t="s" s="2">
         <v>305</v>
@@ -55819,7 +55822,7 @@
     </row>
     <row r="468">
       <c r="A468" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B468" t="s" s="2">
         <v>306</v>
@@ -55931,7 +55934,7 @@
     </row>
     <row r="469">
       <c r="A469" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B469" t="s" s="2">
         <v>309</v>
@@ -56043,7 +56046,7 @@
     </row>
     <row r="470">
       <c r="A470" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B470" t="s" s="2">
         <v>312</v>
@@ -56157,7 +56160,7 @@
     </row>
     <row r="471">
       <c r="A471" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B471" t="s" s="2">
         <v>316</v>
@@ -56271,7 +56274,7 @@
     </row>
     <row r="472">
       <c r="A472" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B472" t="s" s="2">
         <v>320</v>
@@ -56385,10 +56388,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" t="s" s="2">
@@ -56411,19 +56414,19 @@
         <v>88</v>
       </c>
       <c r="K473" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L473" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M473" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N473" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O473" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="P473" t="s" s="2">
         <v>78</v>
@@ -56472,7 +56475,7 @@
         <v>78</v>
       </c>
       <c r="AF473" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AG473" t="s" s="2">
         <v>79</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-document.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
